--- a/data/trans_orig/PCS12_SP_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/PCS12_SP_R2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1570C584-0228-4616-887F-40807C6487E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F469456E-CC8B-4F34-BC20-BD784F0540F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8F2C4F7A-D38F-42EF-8FC9-97C8AE8B9372}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FE750090-ED4F-48D2-B72F-AF6182151E69}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="579">
   <si>
     <t>Población por debajo de la mediana de la puntuación del componente de salud física (SF12) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>23,81%</t>
@@ -191,7 +191,7 @@
     <t>71,59%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>34,08%</t>
@@ -248,7 +248,7 @@
     <t>61,21%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>42,56%</t>
@@ -305,7 +305,7 @@
     <t>51,79%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>66,21%</t>
@@ -362,1237 +362,1420 @@
     <t>35,03%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población por debajo de la mediana de la puntuación del componente de salud física (SF12) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>Población por debajo de la mediana de la puntuación del componente de salud física (SF12) en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>Población por debajo de la mediana de la puntuación del componente de salud física (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
   </si>
   <si>
     <t>93,49%</t>
   </si>
   <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
   </si>
   <si>
     <t>6,51%</t>
   </si>
   <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población por debajo de la mediana de la puntuación del componente de salud física (SF12) en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>Población por debajo de la mediana de la puntuación del componente de salud física (SF12) en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>Población por debajo de la mediana de la puntuación del componente de salud física (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
   </si>
 </sst>
 </file>
@@ -2004,8 +2187,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76580808-2D34-494A-B577-C1CC736AF93D}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007C360A-AD6D-4406-B3AE-57416E54586F}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2897,10 +3080,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>437</v>
+        <v>236</v>
       </c>
       <c r="D19" s="7">
-        <v>415763</v>
+        <v>225336</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2912,10 +3095,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>604</v>
+        <v>326</v>
       </c>
       <c r="I19" s="7">
-        <v>620222</v>
+        <v>300124</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -2927,10 +3110,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>1041</v>
+        <v>562</v>
       </c>
       <c r="N19" s="7">
-        <v>1035985</v>
+        <v>525460</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -2948,10 +3131,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D20" s="7">
-        <v>86703</v>
+        <v>67247</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -2963,10 +3146,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I20" s="7">
-        <v>56620</v>
+        <v>42810</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -2978,10 +3161,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="N20" s="7">
-        <v>143323</v>
+        <v>110057</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -2999,10 +3182,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3014,10 +3197,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3029,10 +3212,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3046,55 +3229,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1389</v>
+        <v>201</v>
       </c>
       <c r="D22" s="7">
-        <v>1394942</v>
+        <v>190427</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>1869</v>
+        <v>278</v>
       </c>
       <c r="I22" s="7">
-        <v>1927947</v>
+        <v>320097</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>3258</v>
+        <v>479</v>
       </c>
       <c r="N22" s="7">
-        <v>3322889</v>
+        <v>510525</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,49 +3286,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1825</v>
+        <v>19</v>
       </c>
       <c r="D23" s="7">
-        <v>1881602</v>
+        <v>19456</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>1428</v>
+        <v>12</v>
       </c>
       <c r="I23" s="7">
-        <v>1451251</v>
+        <v>13811</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>3253</v>
+        <v>31</v>
       </c>
       <c r="N23" s="7">
-        <v>3332851</v>
+        <v>33266</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,63 +3337,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1389</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1394942</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1869</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1927947</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3258</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3322889</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1825</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1881601</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1428</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1451250</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3253</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3332852</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3214</v>
       </c>
-      <c r="D24" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6511</v>
       </c>
-      <c r="N24" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3223,8 +3562,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D088ABD-501A-4A4C-8959-82F7A3276399}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF9B7DFB-007F-41FE-94FC-E5E1553213FB}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3240,7 +3579,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3347,13 +3686,13 @@
         <v>110419</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="H4" s="7">
         <v>118</v>
@@ -3362,13 +3701,13 @@
         <v>121497</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="M4" s="7">
         <v>227</v>
@@ -3377,13 +3716,13 @@
         <v>231916</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3398,13 +3737,13 @@
         <v>343727</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
         <v>303</v>
@@ -3413,13 +3752,13 @@
         <v>308733</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="M5" s="7">
         <v>640</v>
@@ -3428,13 +3767,13 @@
         <v>652460</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,13 +3841,13 @@
         <v>191997</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>202</v>
@@ -3517,13 +3856,13 @@
         <v>214032</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>382</v>
@@ -3532,13 +3871,13 @@
         <v>406029</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3553,13 +3892,13 @@
         <v>495090</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>369</v>
@@ -3568,13 +3907,13 @@
         <v>396223</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>856</v>
@@ -3583,13 +3922,13 @@
         <v>891313</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,13 +3996,13 @@
         <v>243766</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>295</v>
@@ -3672,13 +4011,13 @@
         <v>314960</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>530</v>
@@ -3687,13 +4026,13 @@
         <v>558726</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3708,13 +4047,13 @@
         <v>438097</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>372</v>
@@ -3723,13 +4062,13 @@
         <v>395890</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>788</v>
@@ -3738,13 +4077,13 @@
         <v>833986</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,13 +4151,13 @@
         <v>253169</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>268</v>
@@ -3827,13 +4166,13 @@
         <v>310275</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>492</v>
@@ -3842,13 +4181,13 @@
         <v>563445</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,13 +4202,13 @@
         <v>361448</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>271</v>
@@ -3878,13 +4217,13 @@
         <v>305924</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>595</v>
@@ -3893,13 +4232,13 @@
         <v>667371</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,13 +4306,13 @@
         <v>254086</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>286</v>
@@ -3982,13 +4321,13 @@
         <v>316933</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>518</v>
@@ -3997,13 +4336,13 @@
         <v>571019</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,13 +4357,13 @@
         <v>175343</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>120</v>
@@ -4033,13 +4372,13 @@
         <v>130867</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>281</v>
@@ -4048,13 +4387,13 @@
         <v>306210</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4116,49 +4455,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>407</v>
+        <v>213</v>
       </c>
       <c r="D19" s="7">
-        <v>453995</v>
+        <v>235553</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="H19" s="7">
-        <v>611</v>
+        <v>281</v>
       </c>
       <c r="I19" s="7">
-        <v>654055</v>
+        <v>286724</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="M19" s="7">
-        <v>1018</v>
+        <v>494</v>
       </c>
       <c r="N19" s="7">
-        <v>1108050</v>
+        <v>522278</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4167,49 +4506,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="D20" s="7">
-        <v>105642</v>
+        <v>74233</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="H20" s="7">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="I20" s="7">
-        <v>88920</v>
+        <v>67272</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="M20" s="7">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="N20" s="7">
-        <v>194562</v>
+        <v>141504</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,10 +4557,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4233,10 +4572,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4248,10 +4587,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4265,55 +4604,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1387</v>
+        <v>194</v>
       </c>
       <c r="D22" s="7">
-        <v>1507432</v>
+        <v>218442</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="H22" s="7">
-        <v>1780</v>
+        <v>330</v>
       </c>
       <c r="I22" s="7">
-        <v>1931754</v>
+        <v>367331</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="M22" s="7">
-        <v>3167</v>
+        <v>524</v>
       </c>
       <c r="N22" s="7">
-        <v>3439186</v>
+        <v>585773</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,49 +4661,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1822</v>
+        <v>28</v>
       </c>
       <c r="D23" s="7">
-        <v>1919347</v>
+        <v>31409</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="H23" s="7">
-        <v>1518</v>
+        <v>20</v>
       </c>
       <c r="I23" s="7">
-        <v>1626555</v>
+        <v>21648</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="M23" s="7">
-        <v>3340</v>
+        <v>48</v>
       </c>
       <c r="N23" s="7">
-        <v>3545902</v>
+        <v>53057</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,63 +4712,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1387</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1507432</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1780</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1931754</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3167</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3439186</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1822</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1919347</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1518</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1626555</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3340</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3545902</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3426779</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3298</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3558309</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6507</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6985088</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4442,8 +4937,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BD67FE-E7F4-4225-9534-624CB91BACB3}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BE242C-1441-424B-8652-54F6F84B40D4}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4459,7 +4954,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4566,13 +5061,13 @@
         <v>76407</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>274</v>
+        <v>138</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="H4" s="7">
         <v>85</v>
@@ -4581,13 +5076,13 @@
         <v>85454</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="M4" s="7">
         <v>154</v>
@@ -4596,13 +5091,13 @@
         <v>161861</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,13 +5112,13 @@
         <v>343056</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>284</v>
+        <v>128</v>
       </c>
       <c r="H5" s="7">
         <v>319</v>
@@ -4632,13 +5127,13 @@
         <v>310301</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="M5" s="7">
         <v>643</v>
@@ -4647,13 +5142,13 @@
         <v>653357</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,13 +5216,13 @@
         <v>128665</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="H7" s="7">
         <v>132</v>
@@ -4736,13 +5231,13 @@
         <v>131008</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="M7" s="7">
         <v>253</v>
@@ -4751,13 +5246,13 @@
         <v>259673</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4772,13 +5267,13 @@
         <v>461831</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="H8" s="7">
         <v>447</v>
@@ -4787,13 +5282,13 @@
         <v>432536</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="M8" s="7">
         <v>893</v>
@@ -4802,13 +5297,13 @@
         <v>894367</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4876,13 +5371,13 @@
         <v>160940</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="H10" s="7">
         <v>223</v>
@@ -4891,13 +5386,13 @@
         <v>226584</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="M10" s="7">
         <v>375</v>
@@ -4906,13 +5401,13 @@
         <v>387524</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4927,13 +5422,13 @@
         <v>508157</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="H11" s="7">
         <v>442</v>
@@ -4942,13 +5437,13 @@
         <v>434802</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="M11" s="7">
         <v>928</v>
@@ -4957,13 +5452,13 @@
         <v>942959</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5031,13 +5526,13 @@
         <v>247394</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="H13" s="7">
         <v>261</v>
@@ -5046,13 +5541,13 @@
         <v>284145</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="M13" s="7">
         <v>480</v>
@@ -5061,13 +5556,13 @@
         <v>531539</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5082,13 +5577,13 @@
         <v>398654</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="H14" s="7">
         <v>341</v>
@@ -5097,13 +5592,13 @@
         <v>364932</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="M14" s="7">
         <v>704</v>
@@ -5112,13 +5607,13 @@
         <v>763586</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5186,13 +5681,13 @@
         <v>269437</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="H16" s="7">
         <v>272</v>
@@ -5201,13 +5696,13 @@
         <v>311962</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="M16" s="7">
         <v>512</v>
@@ -5216,13 +5711,13 @@
         <v>581399</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5237,13 +5732,13 @@
         <v>208481</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="H17" s="7">
         <v>161</v>
@@ -5252,13 +5747,13 @@
         <v>184887</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="M17" s="7">
         <v>345</v>
@@ -5267,13 +5762,13 @@
         <v>393368</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5335,49 +5830,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>467</v>
+        <v>221</v>
       </c>
       <c r="D19" s="7">
-        <v>439172</v>
+        <v>228237</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>363</v>
+        <v>398</v>
       </c>
       <c r="H19" s="7">
-        <v>548</v>
+        <v>274</v>
       </c>
       <c r="I19" s="7">
-        <v>656109</v>
+        <v>291477</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>364</v>
+        <v>399</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="M19" s="7">
-        <v>1015</v>
+        <v>495</v>
       </c>
       <c r="N19" s="7">
-        <v>1095280</v>
+        <v>519714</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>369</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5386,49 +5881,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="D20" s="7">
-        <v>152156</v>
+        <v>106093</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>370</v>
+        <v>405</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>372</v>
+        <v>407</v>
       </c>
       <c r="H20" s="7">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="I20" s="7">
-        <v>121822</v>
+        <v>86285</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>373</v>
+        <v>408</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>374</v>
+        <v>409</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>375</v>
+        <v>410</v>
       </c>
       <c r="M20" s="7">
-        <v>267</v>
+        <v>184</v>
       </c>
       <c r="N20" s="7">
-        <v>273979</v>
+        <v>192378</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>376</v>
+        <v>411</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>378</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5437,10 +5932,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5452,10 +5947,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5467,10 +5962,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5484,55 +5979,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1268</v>
+        <v>246</v>
       </c>
       <c r="D22" s="7">
-        <v>1322013</v>
+        <v>210935</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>380</v>
+        <v>415</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>381</v>
+        <v>416</v>
       </c>
       <c r="H22" s="7">
-        <v>1521</v>
+        <v>274</v>
       </c>
       <c r="I22" s="7">
-        <v>1695262</v>
+        <v>364632</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="M22" s="7">
-        <v>2789</v>
+        <v>520</v>
       </c>
       <c r="N22" s="7">
-        <v>3017275</v>
+        <v>575567</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>386</v>
+        <v>421</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>387</v>
+        <v>422</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,49 +6036,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1963</v>
+        <v>56</v>
       </c>
       <c r="D23" s="7">
-        <v>2072337</v>
+        <v>46063</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>388</v>
+        <v>423</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>389</v>
+        <v>424</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>390</v>
+        <v>425</v>
       </c>
       <c r="H23" s="7">
-        <v>1817</v>
+        <v>27</v>
       </c>
       <c r="I23" s="7">
-        <v>1849280</v>
+        <v>35537</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>391</v>
+        <v>426</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>392</v>
+        <v>427</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>393</v>
+        <v>428</v>
       </c>
       <c r="M23" s="7">
-        <v>3780</v>
+        <v>83</v>
       </c>
       <c r="N23" s="7">
-        <v>3921617</v>
+        <v>81600</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>394</v>
+        <v>429</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>395</v>
+        <v>430</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>396</v>
+        <v>431</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,63 +6087,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1268</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1322013</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1521</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1695262</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2789</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3017275</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1963</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2072337</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1817</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1849280</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3780</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3921617</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5661,8 +6312,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68730C5B-D875-48A3-B5ED-4079D4B2209E}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57EFD5CB-5A14-43D1-B5F2-7C78F2535F29}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5678,7 +6329,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>397</v>
+        <v>450</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5782,46 +6433,46 @@
         <v>33</v>
       </c>
       <c r="D4" s="7">
-        <v>69983</v>
+        <v>76970</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>399</v>
+        <v>452</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>400</v>
+        <v>453</v>
       </c>
       <c r="H4" s="7">
         <v>36</v>
       </c>
       <c r="I4" s="7">
-        <v>61314</v>
+        <v>56959</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>401</v>
+        <v>118</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>402</v>
+        <v>454</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>403</v>
+        <v>102</v>
       </c>
       <c r="M4" s="7">
         <v>69</v>
       </c>
       <c r="N4" s="7">
-        <v>131297</v>
+        <v>133929</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>404</v>
+        <v>455</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>405</v>
+        <v>456</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>406</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5833,46 +6484,46 @@
         <v>139</v>
       </c>
       <c r="D5" s="7">
-        <v>307696</v>
+        <v>323017</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>407</v>
+        <v>458</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>408</v>
+        <v>459</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>409</v>
+        <v>460</v>
       </c>
       <c r="H5" s="7">
         <v>170</v>
       </c>
       <c r="I5" s="7">
-        <v>291954</v>
+        <v>254658</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>410</v>
+        <v>110</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>411</v>
+        <v>94</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>412</v>
+        <v>461</v>
       </c>
       <c r="M5" s="7">
         <v>309</v>
       </c>
       <c r="N5" s="7">
-        <v>599650</v>
+        <v>577675</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>413</v>
+        <v>462</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>414</v>
+        <v>463</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>415</v>
+        <v>464</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5884,7 +6535,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5899,7 +6550,7 @@
         <v>206</v>
       </c>
       <c r="I6" s="7">
-        <v>353268</v>
+        <v>311617</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5914,7 +6565,7 @@
         <v>378</v>
       </c>
       <c r="N6" s="7">
-        <v>730947</v>
+        <v>711604</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5937,46 +6588,46 @@
         <v>92</v>
       </c>
       <c r="D7" s="7">
-        <v>126435</v>
+        <v>128996</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>416</v>
+        <v>465</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>417</v>
+        <v>466</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
       <c r="H7" s="7">
         <v>136</v>
       </c>
       <c r="I7" s="7">
-        <v>138570</v>
+        <v>131816</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
       <c r="M7" s="7">
         <v>228</v>
       </c>
       <c r="N7" s="7">
-        <v>265005</v>
+        <v>260812</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>424</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5988,46 +6639,46 @@
         <v>210</v>
       </c>
       <c r="D8" s="7">
-        <v>301961</v>
+        <v>294551</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
       <c r="H8" s="7">
         <v>323</v>
       </c>
       <c r="I8" s="7">
-        <v>359414</v>
+        <v>379148</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>429</v>
+        <v>478</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>430</v>
+        <v>479</v>
       </c>
       <c r="M8" s="7">
         <v>533</v>
       </c>
       <c r="N8" s="7">
-        <v>661375</v>
+        <v>673699</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>431</v>
+        <v>480</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>432</v>
+        <v>481</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>433</v>
+        <v>482</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6039,7 +6690,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -6054,7 +6705,7 @@
         <v>459</v>
       </c>
       <c r="I9" s="7">
-        <v>497984</v>
+        <v>510964</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6069,7 +6720,7 @@
         <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>926380</v>
+        <v>934511</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6092,46 +6743,46 @@
         <v>187</v>
       </c>
       <c r="D10" s="7">
-        <v>185531</v>
+        <v>181722</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>434</v>
+        <v>483</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>416</v>
+        <v>484</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>435</v>
+        <v>485</v>
       </c>
       <c r="H10" s="7">
         <v>322</v>
       </c>
       <c r="I10" s="7">
-        <v>209192</v>
+        <v>199190</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>436</v>
+        <v>486</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>437</v>
+        <v>393</v>
       </c>
       <c r="M10" s="7">
         <v>509</v>
       </c>
       <c r="N10" s="7">
-        <v>394722</v>
+        <v>380913</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6143,46 +6794,46 @@
         <v>358</v>
       </c>
       <c r="D11" s="7">
-        <v>370749</v>
+        <v>353647</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>441</v>
+        <v>490</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>425</v>
+        <v>492</v>
       </c>
       <c r="H11" s="7">
         <v>523</v>
       </c>
       <c r="I11" s="7">
-        <v>373438</v>
+        <v>342568</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>443</v>
+        <v>493</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>444</v>
+        <v>384</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>159</v>
+        <v>48</v>
       </c>
       <c r="M11" s="7">
         <v>881</v>
       </c>
       <c r="N11" s="7">
-        <v>744187</v>
+        <v>696215</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>445</v>
+        <v>494</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>447</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6194,7 +6845,7 @@
         <v>545</v>
       </c>
       <c r="D12" s="7">
-        <v>556280</v>
+        <v>535369</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6209,7 +6860,7 @@
         <v>845</v>
       </c>
       <c r="I12" s="7">
-        <v>582630</v>
+        <v>541758</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6224,7 +6875,7 @@
         <v>1390</v>
       </c>
       <c r="N12" s="7">
-        <v>1138909</v>
+        <v>1077128</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6247,46 +6898,46 @@
         <v>320</v>
       </c>
       <c r="D13" s="7">
-        <v>362270</v>
+        <v>545481</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>448</v>
+        <v>497</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>449</v>
+        <v>498</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
       <c r="H13" s="7">
         <v>610</v>
       </c>
       <c r="I13" s="7">
-        <v>388748</v>
+        <v>362355</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>451</v>
+        <v>500</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>453</v>
+        <v>502</v>
       </c>
       <c r="M13" s="7">
         <v>930</v>
       </c>
       <c r="N13" s="7">
-        <v>751018</v>
+        <v>907837</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>454</v>
+        <v>217</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>261</v>
+        <v>503</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>455</v>
+        <v>504</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6298,46 +6949,46 @@
         <v>343</v>
       </c>
       <c r="D14" s="7">
-        <v>359556</v>
+        <v>340210</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>456</v>
+        <v>505</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>457</v>
+        <v>506</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>458</v>
+        <v>507</v>
       </c>
       <c r="H14" s="7">
         <v>525</v>
       </c>
       <c r="I14" s="7">
-        <v>354705</v>
+        <v>346957</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>459</v>
+        <v>508</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>460</v>
+        <v>509</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>461</v>
+        <v>510</v>
       </c>
       <c r="M14" s="7">
         <v>868</v>
       </c>
       <c r="N14" s="7">
-        <v>714262</v>
+        <v>687166</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>462</v>
+        <v>209</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>463</v>
+        <v>511</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>271</v>
+        <v>512</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6349,7 +7000,7 @@
         <v>663</v>
       </c>
       <c r="D15" s="7">
-        <v>721826</v>
+        <v>885691</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6364,7 +7015,7 @@
         <v>1135</v>
       </c>
       <c r="I15" s="7">
-        <v>743453</v>
+        <v>709312</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6379,7 +7030,7 @@
         <v>1798</v>
       </c>
       <c r="N15" s="7">
-        <v>1465280</v>
+        <v>1595003</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6402,46 +7053,46 @@
         <v>383</v>
       </c>
       <c r="D16" s="7">
-        <v>343371</v>
+        <v>326301</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>464</v>
+        <v>513</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>465</v>
+        <v>514</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>466</v>
+        <v>515</v>
       </c>
       <c r="H16" s="7">
         <v>645</v>
       </c>
       <c r="I16" s="7">
-        <v>377357</v>
+        <v>348357</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>467</v>
+        <v>516</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>468</v>
+        <v>517</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>469</v>
+        <v>518</v>
       </c>
       <c r="M16" s="7">
         <v>1028</v>
       </c>
       <c r="N16" s="7">
-        <v>720728</v>
+        <v>674658</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>470</v>
+        <v>519</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>471</v>
+        <v>520</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>472</v>
+        <v>521</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6453,46 +7104,46 @@
         <v>275</v>
       </c>
       <c r="D17" s="7">
-        <v>250093</v>
+        <v>228636</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>473</v>
+        <v>522</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>474</v>
+        <v>523</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>475</v>
+        <v>524</v>
       </c>
       <c r="H17" s="7">
         <v>353</v>
       </c>
       <c r="I17" s="7">
-        <v>217223</v>
+        <v>197244</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>476</v>
+        <v>525</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>477</v>
+        <v>526</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>478</v>
+        <v>527</v>
       </c>
       <c r="M17" s="7">
         <v>628</v>
       </c>
       <c r="N17" s="7">
-        <v>467316</v>
+        <v>425880</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>479</v>
+        <v>528</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>480</v>
+        <v>529</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>481</v>
+        <v>530</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6504,7 +7155,7 @@
         <v>658</v>
       </c>
       <c r="D18" s="7">
-        <v>593464</v>
+        <v>554937</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6519,7 +7170,7 @@
         <v>998</v>
       </c>
       <c r="I18" s="7">
-        <v>594580</v>
+        <v>545601</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6534,7 +7185,7 @@
         <v>1656</v>
       </c>
       <c r="N18" s="7">
-        <v>1188044</v>
+        <v>1100538</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6554,49 +7205,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>721</v>
+        <v>356</v>
       </c>
       <c r="D19" s="7">
-        <v>486081</v>
+        <v>229411</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>482</v>
+        <v>531</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>483</v>
+        <v>532</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>484</v>
+        <v>533</v>
       </c>
       <c r="H19" s="7">
-        <v>1422</v>
+        <v>629</v>
       </c>
       <c r="I19" s="7">
-        <v>872326</v>
+        <v>511562</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>485</v>
+        <v>534</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>486</v>
+        <v>535</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>487</v>
+        <v>536</v>
       </c>
       <c r="M19" s="7">
-        <v>2143</v>
+        <v>985</v>
       </c>
       <c r="N19" s="7">
-        <v>1358407</v>
+        <v>740974</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>488</v>
+        <v>537</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>489</v>
+        <v>538</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>490</v>
+        <v>539</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6605,49 +7256,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>297</v>
+        <v>208</v>
       </c>
       <c r="D20" s="7">
-        <v>204437</v>
+        <v>134350</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>491</v>
+        <v>540</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>492</v>
+        <v>541</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>493</v>
+        <v>542</v>
       </c>
       <c r="H20" s="7">
-        <v>266</v>
+        <v>195</v>
       </c>
       <c r="I20" s="7">
-        <v>143331</v>
+        <v>95081</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>494</v>
+        <v>543</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>495</v>
+        <v>544</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>496</v>
+        <v>545</v>
       </c>
       <c r="M20" s="7">
-        <v>563</v>
+        <v>403</v>
       </c>
       <c r="N20" s="7">
-        <v>347767</v>
+        <v>229431</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>497</v>
+        <v>546</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>498</v>
+        <v>547</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>499</v>
+        <v>548</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6656,10 +7307,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1018</v>
+        <v>564</v>
       </c>
       <c r="D21" s="7">
-        <v>690518</v>
+        <v>363761</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6671,10 +7322,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1688</v>
+        <v>824</v>
       </c>
       <c r="I21" s="7">
-        <v>1015657</v>
+        <v>606643</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6686,10 +7337,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2706</v>
+        <v>1388</v>
       </c>
       <c r="N21" s="7">
-        <v>1706174</v>
+        <v>970405</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6703,55 +7354,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1736</v>
+        <v>365</v>
       </c>
       <c r="D22" s="7">
-        <v>1573670</v>
+        <v>226029</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>500</v>
+        <v>549</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>501</v>
+        <v>550</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>502</v>
+        <v>551</v>
       </c>
       <c r="H22" s="7">
-        <v>3171</v>
+        <v>793</v>
       </c>
       <c r="I22" s="7">
-        <v>2047507</v>
+        <v>383552</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>503</v>
+        <v>552</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>504</v>
+        <v>553</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>505</v>
+        <v>554</v>
       </c>
       <c r="M22" s="7">
-        <v>4907</v>
+        <v>1158</v>
       </c>
       <c r="N22" s="7">
-        <v>3621177</v>
+        <v>609581</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>506</v>
+        <v>555</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>507</v>
+        <v>556</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>508</v>
+        <v>557</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6760,49 +7411,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1622</v>
+        <v>89</v>
       </c>
       <c r="D23" s="7">
-        <v>1794492</v>
+        <v>54389</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>509</v>
+        <v>558</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>510</v>
+        <v>559</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>511</v>
+        <v>560</v>
       </c>
       <c r="H23" s="7">
-        <v>2160</v>
+        <v>71</v>
       </c>
       <c r="I23" s="7">
-        <v>1740065</v>
+        <v>34156</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>512</v>
+        <v>561</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>513</v>
+        <v>562</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>514</v>
+        <v>563</v>
       </c>
       <c r="M23" s="7">
-        <v>3782</v>
+        <v>160</v>
       </c>
       <c r="N23" s="7">
-        <v>3534557</v>
+        <v>88545</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>515</v>
+        <v>564</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>516</v>
+        <v>565</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>517</v>
+        <v>566</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6811,63 +7462,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>454</v>
+      </c>
+      <c r="D24" s="7">
+        <v>280418</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>864</v>
+      </c>
+      <c r="I24" s="7">
+        <v>417708</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1318</v>
+      </c>
+      <c r="N24" s="7">
+        <v>698126</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1736</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1714911</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="H25" s="7">
+        <v>3171</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1993792</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="M25" s="7">
+        <v>4907</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3708703</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1622</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1728800</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2160</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1649811</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3782</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3378611</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3358</v>
       </c>
-      <c r="D24" s="7">
-        <v>3368162</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3443711</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5331</v>
       </c>
-      <c r="I24" s="7">
-        <v>3787572</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3643603</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8689</v>
       </c>
-      <c r="N24" s="7">
-        <v>7155734</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>7087314</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
